--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Sema3f-Nrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Sema3f-Nrp1.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>59.0554585</v>
+        <v>58.5343625</v>
       </c>
       <c r="H2">
-        <v>118.110917</v>
+        <v>117.068725</v>
       </c>
       <c r="I2">
-        <v>0.5792615887653531</v>
+        <v>0.9016181113759077</v>
       </c>
       <c r="J2">
-        <v>0.4852944075593153</v>
+        <v>0.8918723534607176</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>107.663086</v>
+        <v>104.480755</v>
       </c>
       <c r="N2">
-        <v>215.326172</v>
+        <v>208.96151</v>
       </c>
       <c r="O2">
-        <v>0.2751823527645522</v>
+        <v>0.3158951586858897</v>
       </c>
       <c r="P2">
-        <v>0.2057131686791961</v>
+        <v>0.2430112830697999</v>
       </c>
       <c r="Q2">
-        <v>6358.092907254931</v>
+        <v>6115.714387443687</v>
       </c>
       <c r="R2">
-        <v>25432.37162901972</v>
+        <v>24462.85754977475</v>
       </c>
       <c r="S2">
-        <v>0.1594025668625824</v>
+        <v>0.2848167963671646</v>
       </c>
       <c r="T2">
-        <v>0.09983145032131995</v>
+        <v>0.216735044948971</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>59.0554585</v>
+        <v>58.5343625</v>
       </c>
       <c r="H3">
-        <v>118.110917</v>
+        <v>117.068725</v>
       </c>
       <c r="I3">
-        <v>0.5792615887653531</v>
+        <v>0.9016181113759077</v>
       </c>
       <c r="J3">
-        <v>0.4852944075593153</v>
+        <v>0.8918723534607176</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>82.23518200000001</v>
       </c>
       <c r="O3">
-        <v>0.07006323059444027</v>
+        <v>0.08287872686044118</v>
       </c>
       <c r="P3">
-        <v>0.07856388152449202</v>
+        <v>0.09563520617408686</v>
       </c>
       <c r="Q3">
-        <v>1618.812125946982</v>
+        <v>1604.527984480492</v>
       </c>
       <c r="R3">
-        <v>9712.872755681896</v>
+        <v>9627.167906882951</v>
       </c>
       <c r="S3">
-        <v>0.04058493826816876</v>
+        <v>0.07472496118515069</v>
       </c>
       <c r="T3">
-        <v>0.03812661233998859</v>
+        <v>0.08529439640418379</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>59.0554585</v>
+        <v>58.5343625</v>
       </c>
       <c r="H4">
-        <v>118.110917</v>
+        <v>117.068725</v>
       </c>
       <c r="I4">
-        <v>0.5792615887653531</v>
+        <v>0.9016181113759077</v>
       </c>
       <c r="J4">
-        <v>0.4852944075593153</v>
+        <v>0.8918723534607176</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>82.303927</v>
+        <v>56.26987066666667</v>
       </c>
       <c r="N4">
-        <v>246.911781</v>
+        <v>168.809612</v>
       </c>
       <c r="O4">
-        <v>0.2103654011331419</v>
+        <v>0.170130659215481</v>
       </c>
       <c r="P4">
-        <v>0.2358886724356653</v>
+        <v>0.1963167303233743</v>
       </c>
       <c r="Q4">
-        <v>4860.49614533553</v>
+        <v>3293.721007430784</v>
       </c>
       <c r="R4">
-        <v>29162.97687201318</v>
+        <v>19762.3260445847</v>
       </c>
       <c r="S4">
-        <v>0.1218565964816446</v>
+        <v>0.1533928836490001</v>
       </c>
       <c r="T4">
-        <v>0.1144754535396196</v>
+        <v>0.1750894642972209</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>59.0554585</v>
+        <v>58.5343625</v>
       </c>
       <c r="H5">
-        <v>118.110917</v>
+        <v>117.068725</v>
       </c>
       <c r="I5">
-        <v>0.5792615887653531</v>
+        <v>0.9016181113759077</v>
       </c>
       <c r="J5">
-        <v>0.4852944075593153</v>
+        <v>0.8918723534607176</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>19.3348755</v>
+        <v>27.870364</v>
       </c>
       <c r="N5">
-        <v>38.669751</v>
+        <v>55.740728</v>
       </c>
       <c r="O5">
-        <v>0.04941913452582716</v>
+        <v>0.08426540426907815</v>
       </c>
       <c r="P5">
-        <v>0.03694338192314825</v>
+        <v>0.06482354492233867</v>
       </c>
       <c r="Q5">
-        <v>1141.829937692917</v>
+        <v>1631.37398938295</v>
       </c>
       <c r="R5">
-        <v>4567.319750771667</v>
+        <v>6525.495957531801</v>
       </c>
       <c r="S5">
-        <v>0.02862660638083935</v>
+        <v>0.0759752146514136</v>
       </c>
       <c r="T5">
-        <v>0.01792841664363175</v>
+        <v>0.05781432756955274</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>59.0554585</v>
+        <v>58.5343625</v>
       </c>
       <c r="H6">
-        <v>118.110917</v>
+        <v>117.068725</v>
       </c>
       <c r="I6">
-        <v>0.5792615887653531</v>
+        <v>0.9016181113759077</v>
       </c>
       <c r="J6">
-        <v>0.4852944075593153</v>
+        <v>0.8918723534607176</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>83.25665266666667</v>
+        <v>19.17638633333334</v>
       </c>
       <c r="N6">
-        <v>249.769958</v>
+        <v>57.52915900000001</v>
       </c>
       <c r="O6">
-        <v>0.2128005281598046</v>
+        <v>0.05797936283854631</v>
       </c>
       <c r="P6">
-        <v>0.2386192492246122</v>
+        <v>0.06690339643179515</v>
       </c>
       <c r="Q6">
-        <v>4916.759796405247</v>
+        <v>1122.477549075379</v>
       </c>
       <c r="R6">
-        <v>29500.55877843148</v>
+        <v>6734.865294452276</v>
       </c>
       <c r="S6">
-        <v>0.1232671720319547</v>
+        <v>0.05227524362126861</v>
       </c>
       <c r="T6">
-        <v>0.1158005871847068</v>
+        <v>0.05966928963014051</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>59.0554585</v>
+        <v>58.5343625</v>
       </c>
       <c r="H7">
-        <v>118.110917</v>
+        <v>117.068725</v>
       </c>
       <c r="I7">
-        <v>0.5792615887653531</v>
+        <v>0.9016181113759077</v>
       </c>
       <c r="J7">
-        <v>0.4852944075593153</v>
+        <v>0.8918723534607176</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>71.272429</v>
+        <v>95.53593066666667</v>
       </c>
       <c r="N7">
-        <v>213.817287</v>
+        <v>286.607792</v>
       </c>
       <c r="O7">
-        <v>0.1821693528222338</v>
+        <v>0.2888506881305636</v>
       </c>
       <c r="P7">
-        <v>0.2042716462128862</v>
+        <v>0.3333098390786051</v>
       </c>
       <c r="Q7">
-        <v>4209.025973003697</v>
+        <v>5592.134797417533</v>
       </c>
       <c r="R7">
-        <v>25254.15583802218</v>
+        <v>33552.8087845052</v>
       </c>
       <c r="S7">
-        <v>0.1055237087401633</v>
+        <v>0.2604330119019101</v>
       </c>
       <c r="T7">
-        <v>0.09913188753004865</v>
+        <v>0.2972698306106486</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.109983666666666</v>
+        <v>1.109983666666667</v>
       </c>
       <c r="H8">
-        <v>3.329950999999999</v>
+        <v>3.329951</v>
       </c>
       <c r="I8">
-        <v>0.01088757785627768</v>
+        <v>0.01709733111380696</v>
       </c>
       <c r="J8">
-        <v>0.01368211033148231</v>
+        <v>0.0253687843211658</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>107.663086</v>
+        <v>104.480755</v>
       </c>
       <c r="N8">
-        <v>215.326172</v>
+        <v>208.96151</v>
       </c>
       <c r="O8">
-        <v>0.2751823527645522</v>
+        <v>0.3158951586858897</v>
       </c>
       <c r="P8">
-        <v>0.2057131686791961</v>
+        <v>0.2430112830697999</v>
       </c>
       <c r="Q8">
-        <v>119.5042669629286</v>
+        <v>115.9719315310017</v>
       </c>
       <c r="R8">
-        <v>717.0256017775719</v>
+        <v>695.83158918601</v>
       </c>
       <c r="S8">
-        <v>0.002996069290397731</v>
+        <v>0.005400964125301248</v>
       </c>
       <c r="T8">
-        <v>0.002814590270507591</v>
+        <v>0.006164900827807522</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.109983666666666</v>
+        <v>1.109983666666667</v>
       </c>
       <c r="H9">
-        <v>3.329950999999999</v>
+        <v>3.329951</v>
       </c>
       <c r="I9">
-        <v>0.01088757785627768</v>
+        <v>0.01709733111380696</v>
       </c>
       <c r="J9">
-        <v>0.01368211033148231</v>
+        <v>0.0253687843211658</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>82.23518200000001</v>
       </c>
       <c r="O9">
-        <v>0.07006323059444027</v>
+        <v>0.08287872686044118</v>
       </c>
       <c r="P9">
-        <v>0.07856388152449202</v>
+        <v>0.09563520617408686</v>
       </c>
       <c r="Q9">
-        <v>30.42656961512022</v>
+        <v>30.42656961512023</v>
       </c>
       <c r="R9">
-        <v>273.839126536082</v>
+        <v>273.8391265360821</v>
       </c>
       <c r="S9">
-        <v>0.0007628188779593044</v>
+        <v>0.001417005035423729</v>
       </c>
       <c r="T9">
-        <v>0.001074919695087604</v>
+        <v>0.002426148918940633</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.109983666666666</v>
+        <v>1.109983666666667</v>
       </c>
       <c r="H10">
-        <v>3.329950999999999</v>
+        <v>3.329951</v>
       </c>
       <c r="I10">
-        <v>0.01088757785627768</v>
+        <v>0.01709733111380696</v>
       </c>
       <c r="J10">
-        <v>0.01368211033148231</v>
+        <v>0.0253687843211658</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>82.303927</v>
+        <v>56.26987066666667</v>
       </c>
       <c r="N10">
-        <v>246.911781</v>
+        <v>168.809612</v>
       </c>
       <c r="O10">
-        <v>0.2103654011331419</v>
+        <v>0.170130659215481</v>
       </c>
       <c r="P10">
-        <v>0.2358886724356653</v>
+        <v>0.1963167303233743</v>
       </c>
       <c r="Q10">
-        <v>91.35601467252566</v>
+        <v>62.45863736544578</v>
       </c>
       <c r="R10">
-        <v>822.2041320527309</v>
+        <v>562.1277362890121</v>
       </c>
       <c r="S10">
-        <v>0.002290369683104167</v>
+        <v>0.002908780213217331</v>
       </c>
       <c r="T10">
-        <v>0.003227454842211661</v>
+        <v>0.004980316790210154</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.109983666666666</v>
+        <v>1.109983666666667</v>
       </c>
       <c r="H11">
-        <v>3.329950999999999</v>
+        <v>3.329951</v>
       </c>
       <c r="I11">
-        <v>0.01088757785627768</v>
+        <v>0.01709733111380696</v>
       </c>
       <c r="J11">
-        <v>0.01368211033148231</v>
+        <v>0.0253687843211658</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>19.3348755</v>
+        <v>27.870364</v>
       </c>
       <c r="N11">
-        <v>38.669751</v>
+        <v>55.740728</v>
       </c>
       <c r="O11">
-        <v>0.04941913452582716</v>
+        <v>0.08426540426907815</v>
       </c>
       <c r="P11">
-        <v>0.03694338192314825</v>
+        <v>0.06482354492233867</v>
       </c>
       <c r="Q11">
-        <v>21.4613960020335</v>
+        <v>30.93564882405467</v>
       </c>
       <c r="R11">
-        <v>128.768376012201</v>
+        <v>185.613892944328</v>
       </c>
       <c r="S11">
-        <v>0.0005380546747398034</v>
+        <v>0.001440713518227231</v>
       </c>
       <c r="T11">
-        <v>0.0005054634274906033</v>
+        <v>0.001644494530068212</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.109983666666666</v>
+        <v>1.109983666666667</v>
       </c>
       <c r="H12">
-        <v>3.329950999999999</v>
+        <v>3.329951</v>
       </c>
       <c r="I12">
-        <v>0.01088757785627768</v>
+        <v>0.01709733111380696</v>
       </c>
       <c r="J12">
-        <v>0.01368211033148231</v>
+        <v>0.0253687843211658</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>83.25665266666667</v>
+        <v>19.17638633333334</v>
       </c>
       <c r="N12">
-        <v>249.769958</v>
+        <v>57.52915900000001</v>
       </c>
       <c r="O12">
-        <v>0.2128005281598046</v>
+        <v>0.05797936283854631</v>
       </c>
       <c r="P12">
-        <v>0.2386192492246122</v>
+        <v>0.06690339643179515</v>
       </c>
       <c r="Q12">
-        <v>92.41352460133976</v>
+        <v>21.28547561568989</v>
       </c>
       <c r="R12">
-        <v>831.7217214120578</v>
+        <v>191.5692805412091</v>
       </c>
       <c r="S12">
-        <v>0.002316882318196883</v>
+        <v>0.0009912923642181807</v>
       </c>
       <c r="T12">
-        <v>0.003264814895106618</v>
+        <v>0.001697257834431664</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.109983666666666</v>
+        <v>1.109983666666667</v>
       </c>
       <c r="H13">
-        <v>3.329950999999999</v>
+        <v>3.329951</v>
       </c>
       <c r="I13">
-        <v>0.01088757785627768</v>
+        <v>0.01709733111380696</v>
       </c>
       <c r="J13">
-        <v>0.01368211033148231</v>
+        <v>0.0253687843211658</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>71.272429</v>
+        <v>95.53593066666667</v>
       </c>
       <c r="N13">
-        <v>213.817287</v>
+        <v>286.607792</v>
       </c>
       <c r="O13">
-        <v>0.1821693528222338</v>
+        <v>0.2888506881305636</v>
       </c>
       <c r="P13">
-        <v>0.2042716462128862</v>
+        <v>0.3333098390786051</v>
       </c>
       <c r="Q13">
-        <v>79.11123207365965</v>
+        <v>106.0433226197991</v>
       </c>
       <c r="R13">
-        <v>712.0010886629368</v>
+        <v>954.3899035781922</v>
       </c>
       <c r="S13">
-        <v>0.001983383011879788</v>
+        <v>0.004938575857419236</v>
       </c>
       <c r="T13">
-        <v>0.002794867201078228</v>
+        <v>0.008455665419707612</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,22 +1281,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.131033</v>
+        <v>0.1130183333333333</v>
       </c>
       <c r="H14">
-        <v>0.393099</v>
+        <v>0.339055</v>
       </c>
       <c r="I14">
-        <v>0.001285272956786721</v>
+        <v>0.001740847117807985</v>
       </c>
       <c r="J14">
-        <v>0.001615166075775699</v>
+        <v>0.002583044966130993</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>107.663086</v>
+        <v>104.480755</v>
       </c>
       <c r="N14">
-        <v>215.326172</v>
+        <v>208.96151</v>
       </c>
       <c r="O14">
-        <v>0.2751823527645522</v>
+        <v>0.3158951586858897</v>
       </c>
       <c r="P14">
-        <v>0.2057131686791961</v>
+        <v>0.2430112830697999</v>
       </c>
       <c r="Q14">
-        <v>14.107417147838</v>
+        <v>11.80824079550833</v>
       </c>
       <c r="R14">
-        <v>84.64450288702798</v>
+        <v>70.84944477305</v>
       </c>
       <c r="S14">
-        <v>0.0003536844361932225</v>
+        <v>0.0005499251765278271</v>
       </c>
       <c r="T14">
-        <v>0.0003322609313909615</v>
+        <v>0.0006277090714464804</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,22 +1343,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.131033</v>
+        <v>0.1130183333333333</v>
       </c>
       <c r="H15">
-        <v>0.393099</v>
+        <v>0.339055</v>
       </c>
       <c r="I15">
-        <v>0.001285272956786721</v>
+        <v>0.001740847117807985</v>
       </c>
       <c r="J15">
-        <v>0.001615166075775699</v>
+        <v>0.002583044966130993</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>82.23518200000001</v>
       </c>
       <c r="O15">
-        <v>0.07006323059444027</v>
+        <v>0.08287872686044118</v>
       </c>
       <c r="P15">
-        <v>0.07856388152449202</v>
+        <v>0.09563520617408686</v>
       </c>
       <c r="Q15">
-        <v>3.591840867668667</v>
+        <v>3.098027737001111</v>
       </c>
       <c r="R15">
-        <v>32.326567809018</v>
+        <v>27.88224963301</v>
       </c>
       <c r="S15">
-        <v>9.00503755481461E-05</v>
+        <v>0.0001442791927825943</v>
       </c>
       <c r="T15">
-        <v>0.0001268937162196207</v>
+        <v>0.0002470300378928747</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,22 +1405,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.131033</v>
+        <v>0.1130183333333333</v>
       </c>
       <c r="H16">
-        <v>0.393099</v>
+        <v>0.339055</v>
       </c>
       <c r="I16">
-        <v>0.001285272956786721</v>
+        <v>0.001740847117807985</v>
       </c>
       <c r="J16">
-        <v>0.001615166075775699</v>
+        <v>0.002583044966130993</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>82.303927</v>
+        <v>56.26987066666667</v>
       </c>
       <c r="N16">
-        <v>246.911781</v>
+        <v>168.809612</v>
       </c>
       <c r="O16">
-        <v>0.2103654011331419</v>
+        <v>0.170130659215481</v>
       </c>
       <c r="P16">
-        <v>0.2358886724356653</v>
+        <v>0.1963167303233743</v>
       </c>
       <c r="Q16">
-        <v>10.784530466591</v>
+        <v>6.359526999628889</v>
       </c>
       <c r="R16">
-        <v>97.060774199319</v>
+        <v>57.23574299666001</v>
       </c>
       <c r="S16">
-        <v>0.000270376961120018</v>
+        <v>0.0002961714677460425</v>
       </c>
       <c r="T16">
-        <v>0.0003809993813778527</v>
+        <v>0.0005070949420290879</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,22 +1467,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.131033</v>
+        <v>0.1130183333333333</v>
       </c>
       <c r="H17">
-        <v>0.393099</v>
+        <v>0.339055</v>
       </c>
       <c r="I17">
-        <v>0.001285272956786721</v>
+        <v>0.001740847117807985</v>
       </c>
       <c r="J17">
-        <v>0.001615166075775699</v>
+        <v>0.002583044966130993</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>19.3348755</v>
+        <v>27.870364</v>
       </c>
       <c r="N17">
-        <v>38.669751</v>
+        <v>55.740728</v>
       </c>
       <c r="O17">
-        <v>0.04941913452582716</v>
+        <v>0.08426540426907815</v>
       </c>
       <c r="P17">
-        <v>0.03694338192314825</v>
+        <v>0.06482354492233867</v>
       </c>
       <c r="Q17">
-        <v>2.533506741391499</v>
+        <v>3.149862088673334</v>
       </c>
       <c r="R17">
-        <v>15.201040448349</v>
+        <v>18.89917253204</v>
       </c>
       <c r="S17">
-        <v>6.35170771538506E-05</v>
+        <v>0.0001466931861527494</v>
       </c>
       <c r="T17">
-        <v>5.966969720669425E-05</v>
+        <v>0.0001674421313984132</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,22 +1529,22 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.131033</v>
+        <v>0.1130183333333333</v>
       </c>
       <c r="H18">
-        <v>0.393099</v>
+        <v>0.339055</v>
       </c>
       <c r="I18">
-        <v>0.001285272956786721</v>
+        <v>0.001740847117807985</v>
       </c>
       <c r="J18">
-        <v>0.001615166075775699</v>
+        <v>0.002583044966130993</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>83.25665266666667</v>
+        <v>19.17638633333334</v>
       </c>
       <c r="N18">
-        <v>249.769958</v>
+        <v>57.52915900000001</v>
       </c>
       <c r="O18">
-        <v>0.2128005281598046</v>
+        <v>0.05797936283854631</v>
       </c>
       <c r="P18">
-        <v>0.2386192492246122</v>
+        <v>0.06690339643179515</v>
       </c>
       <c r="Q18">
-        <v>10.90936896887133</v>
+        <v>2.167283222749445</v>
       </c>
       <c r="R18">
-        <v>98.18432071984199</v>
+        <v>19.505549004745</v>
       </c>
       <c r="S18">
-        <v>0.000273506764033728</v>
+        <v>0.0001009332066898267</v>
       </c>
       <c r="T18">
-        <v>0.0003854097163746604</v>
+        <v>0.0001728144813702147</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,22 +1591,22 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.131033</v>
+        <v>0.1130183333333333</v>
       </c>
       <c r="H19">
-        <v>0.393099</v>
+        <v>0.339055</v>
       </c>
       <c r="I19">
-        <v>0.001285272956786721</v>
+        <v>0.001740847117807985</v>
       </c>
       <c r="J19">
-        <v>0.001615166075775699</v>
+        <v>0.002583044966130993</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>71.272429</v>
+        <v>95.53593066666667</v>
       </c>
       <c r="N19">
-        <v>213.817287</v>
+        <v>286.607792</v>
       </c>
       <c r="O19">
-        <v>0.1821693528222338</v>
+        <v>0.2888506881305636</v>
       </c>
       <c r="P19">
-        <v>0.2042716462128862</v>
+        <v>0.3333098390786051</v>
       </c>
       <c r="Q19">
-        <v>9.339040189156998</v>
+        <v>10.79731165739556</v>
       </c>
       <c r="R19">
-        <v>84.05136170241299</v>
+        <v>97.17580491656001</v>
       </c>
       <c r="S19">
-        <v>0.0002341373427377559</v>
+        <v>0.0005028448879089448</v>
       </c>
       <c r="T19">
-        <v>0.0003299326332059092</v>
+        <v>0.0008609543019939224</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>3.4132665</v>
+        <v>4.968263</v>
       </c>
       <c r="H20">
-        <v>6.826533</v>
+        <v>9.936526000000001</v>
       </c>
       <c r="I20">
-        <v>0.03347995639843446</v>
+        <v>0.07652728605148475</v>
       </c>
       <c r="J20">
-        <v>0.02804887449920582</v>
+        <v>0.07570008837837441</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>107.663086</v>
+        <v>104.480755</v>
       </c>
       <c r="N20">
-        <v>215.326172</v>
+        <v>208.96151</v>
       </c>
       <c r="O20">
-        <v>0.2751823527645522</v>
+        <v>0.3158951586858897</v>
       </c>
       <c r="P20">
-        <v>0.2057131686791961</v>
+        <v>0.2430112830697999</v>
       </c>
       <c r="Q20">
-        <v>367.4828047304189</v>
+        <v>519.087869278565</v>
       </c>
       <c r="R20">
-        <v>1469.931218921676</v>
+        <v>2076.35147711426</v>
       </c>
       <c r="S20">
-        <v>0.009213093172175819</v>
+        <v>0.02417459917103425</v>
       </c>
       <c r="T20">
-        <v>0.005770022851116727</v>
+        <v>0.01839597560532601</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>3.4132665</v>
+        <v>4.968263</v>
       </c>
       <c r="H21">
-        <v>6.826533</v>
+        <v>9.936526000000001</v>
       </c>
       <c r="I21">
-        <v>0.03347995639843446</v>
+        <v>0.07652728605148475</v>
       </c>
       <c r="J21">
-        <v>0.02804887449920582</v>
+        <v>0.07570008837837441</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>82.23518200000001</v>
       </c>
       <c r="O21">
-        <v>0.07006323059444027</v>
+        <v>0.08287872686044118</v>
       </c>
       <c r="P21">
-        <v>0.07856388152449202</v>
+        <v>0.09563520617408686</v>
       </c>
       <c r="Q21">
-        <v>93.563530614001</v>
+        <v>136.1886706762887</v>
       </c>
       <c r="R21">
-        <v>561.381183684006</v>
+        <v>817.1320240577321</v>
       </c>
       <c r="S21">
-        <v>0.00234571390543532</v>
+        <v>0.006342484038031854</v>
       </c>
       <c r="T21">
-        <v>0.002203628453050951</v>
+        <v>0.007239593559462434</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>3.4132665</v>
+        <v>4.968263</v>
       </c>
       <c r="H22">
-        <v>6.826533</v>
+        <v>9.936526000000001</v>
       </c>
       <c r="I22">
-        <v>0.03347995639843446</v>
+        <v>0.07652728605148475</v>
       </c>
       <c r="J22">
-        <v>0.02804887449920582</v>
+        <v>0.07570008837837441</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>82.303927</v>
+        <v>56.26987066666667</v>
       </c>
       <c r="N22">
-        <v>246.911781</v>
+        <v>168.809612</v>
       </c>
       <c r="O22">
-        <v>0.2103654011331419</v>
+        <v>0.170130659215481</v>
       </c>
       <c r="P22">
-        <v>0.2358886724356653</v>
+        <v>0.1963167303233743</v>
       </c>
       <c r="Q22">
-        <v>280.9252368475455</v>
+        <v>279.5635164479854</v>
       </c>
       <c r="R22">
-        <v>1685.551421085273</v>
+        <v>1677.381098687912</v>
       </c>
       <c r="S22">
-        <v>0.007043024457676768</v>
+        <v>0.01301963762391078</v>
       </c>
       <c r="T22">
-        <v>0.006616411768932246</v>
+        <v>0.01486119383563293</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>3.4132665</v>
+        <v>4.968263</v>
       </c>
       <c r="H23">
-        <v>6.826533</v>
+        <v>9.936526000000001</v>
       </c>
       <c r="I23">
-        <v>0.03347995639843446</v>
+        <v>0.07652728605148475</v>
       </c>
       <c r="J23">
-        <v>0.02804887449920582</v>
+        <v>0.07570008837837441</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>19.3348755</v>
+        <v>27.870364</v>
       </c>
       <c r="N23">
-        <v>38.669751</v>
+        <v>55.740728</v>
       </c>
       <c r="O23">
-        <v>0.04941913452582716</v>
+        <v>0.08426540426907815</v>
       </c>
       <c r="P23">
-        <v>0.03694338192314825</v>
+        <v>0.06482354492233867</v>
       </c>
       <c r="Q23">
-        <v>65.99508282582075</v>
+        <v>138.467298257732</v>
       </c>
       <c r="R23">
-        <v>263.980331303283</v>
+        <v>553.869193030928</v>
       </c>
       <c r="S23">
-        <v>0.001654550469173061</v>
+        <v>0.006448602696743747</v>
       </c>
       <c r="T23">
-        <v>0.001036220283138614</v>
+        <v>0.004907148079620562</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>3.4132665</v>
+        <v>4.968263</v>
       </c>
       <c r="H24">
-        <v>6.826533</v>
+        <v>9.936526000000001</v>
       </c>
       <c r="I24">
-        <v>0.03347995639843446</v>
+        <v>0.07652728605148475</v>
       </c>
       <c r="J24">
-        <v>0.02804887449920582</v>
+        <v>0.07570008837837441</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>83.25665266666667</v>
+        <v>19.17638633333334</v>
       </c>
       <c r="N24">
-        <v>249.769958</v>
+        <v>57.52915900000001</v>
       </c>
       <c r="O24">
-        <v>0.2128005281598046</v>
+        <v>0.05797936283854631</v>
       </c>
       <c r="P24">
-        <v>0.2386192492246122</v>
+        <v>0.06690339643179515</v>
       </c>
       <c r="Q24">
-        <v>284.177143449269</v>
+        <v>95.27333069360569</v>
       </c>
       <c r="R24">
-        <v>1705.062860695614</v>
+        <v>571.6399841616341</v>
       </c>
       <c r="S24">
-        <v>0.007124552404354084</v>
+        <v>0.004437003285028258</v>
       </c>
       <c r="T24">
-        <v>0.006693001374595864</v>
+        <v>0.005064593022700312</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>3.4132665</v>
+        <v>4.968263</v>
       </c>
       <c r="H25">
-        <v>6.826533</v>
+        <v>9.936526000000001</v>
       </c>
       <c r="I25">
-        <v>0.03347995639843446</v>
+        <v>0.07652728605148475</v>
       </c>
       <c r="J25">
-        <v>0.02804887449920582</v>
+        <v>0.07570008837837441</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>71.272429</v>
+        <v>95.53593066666667</v>
       </c>
       <c r="N25">
-        <v>213.817287</v>
+        <v>286.607792</v>
       </c>
       <c r="O25">
-        <v>0.1821693528222338</v>
+        <v>0.2888506881305636</v>
       </c>
       <c r="P25">
-        <v>0.2042716462128862</v>
+        <v>0.3333098390786051</v>
       </c>
       <c r="Q25">
-        <v>243.2717942793285</v>
+        <v>474.6476295017654</v>
       </c>
       <c r="R25">
-        <v>1459.630765675971</v>
+        <v>2847.885777010592</v>
       </c>
       <c r="S25">
-        <v>0.006099021989619414</v>
+        <v>0.02210495923673585</v>
       </c>
       <c r="T25">
-        <v>0.005729589768371415</v>
+        <v>0.02523158427563216</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,22 +2025,22 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>37.931061</v>
+        <v>0.1174856666666667</v>
       </c>
       <c r="H26">
-        <v>113.793183</v>
+        <v>0.352457</v>
       </c>
       <c r="I26">
-        <v>0.3720571682364556</v>
+        <v>0.001809658470163392</v>
       </c>
       <c r="J26">
-        <v>0.4675536921644063</v>
+        <v>0.002685146302598787</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>107.663086</v>
+        <v>104.480755</v>
       </c>
       <c r="N26">
-        <v>215.326172</v>
+        <v>208.96151</v>
       </c>
       <c r="O26">
-        <v>0.2751823527645522</v>
+        <v>0.3158951586858897</v>
       </c>
       <c r="P26">
-        <v>0.2057131686791961</v>
+        <v>0.2430112830697999</v>
       </c>
       <c r="Q26">
-        <v>4083.775082514246</v>
+        <v>12.27499115501167</v>
       </c>
       <c r="R26">
-        <v>24502.65049508547</v>
+        <v>73.64994693007</v>
       </c>
       <c r="S26">
-        <v>0.1023835669182247</v>
+        <v>0.0005716623495995291</v>
       </c>
       <c r="T26">
-        <v>0.09618195154279743</v>
+        <v>0.0006525208482246603</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,22 +2087,22 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G27">
-        <v>37.931061</v>
+        <v>0.1174856666666667</v>
       </c>
       <c r="H27">
-        <v>113.793183</v>
+        <v>0.352457</v>
       </c>
       <c r="I27">
-        <v>0.3720571682364556</v>
+        <v>0.001809658470163392</v>
       </c>
       <c r="J27">
-        <v>0.4675536921644063</v>
+        <v>0.002685146302598787</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>82.23518200000001</v>
       </c>
       <c r="O27">
-        <v>0.07006323059444027</v>
+        <v>0.08287872686044118</v>
       </c>
       <c r="P27">
-        <v>0.07856388152449202</v>
+        <v>0.09563520617408686</v>
       </c>
       <c r="Q27">
-        <v>1039.755901596034</v>
+        <v>3.220485060241556</v>
       </c>
       <c r="R27">
-        <v>9357.803114364307</v>
+        <v>28.984365542174</v>
       </c>
       <c r="S27">
-        <v>0.02606752717246525</v>
+        <v>0.0001499821900593556</v>
       </c>
       <c r="T27">
-        <v>0.03673283287754323</v>
+        <v>0.000256794520256622</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,22 +2149,22 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G28">
-        <v>37.931061</v>
+        <v>0.1174856666666667</v>
       </c>
       <c r="H28">
-        <v>113.793183</v>
+        <v>0.352457</v>
       </c>
       <c r="I28">
-        <v>0.3720571682364556</v>
+        <v>0.001809658470163392</v>
       </c>
       <c r="J28">
-        <v>0.4675536921644063</v>
+        <v>0.002685146302598787</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>82.303927</v>
+        <v>56.26987066666667</v>
       </c>
       <c r="N28">
-        <v>246.911781</v>
+        <v>168.809612</v>
       </c>
       <c r="O28">
-        <v>0.2103654011331419</v>
+        <v>0.170130659215481</v>
       </c>
       <c r="P28">
-        <v>0.2358886724356653</v>
+        <v>0.1963167303233743</v>
       </c>
       <c r="Q28">
-        <v>3121.875275576547</v>
+        <v>6.610903268520445</v>
       </c>
       <c r="R28">
-        <v>28096.87748018893</v>
+        <v>59.49812941668401</v>
       </c>
       <c r="S28">
-        <v>0.07826795544052287</v>
+        <v>0.0003078783884837767</v>
       </c>
       <c r="T28">
-        <v>0.1102906197370555</v>
+        <v>0.0005271391425660918</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,22 +2211,22 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G29">
-        <v>37.931061</v>
+        <v>0.1174856666666667</v>
       </c>
       <c r="H29">
-        <v>113.793183</v>
+        <v>0.352457</v>
       </c>
       <c r="I29">
-        <v>0.3720571682364556</v>
+        <v>0.001809658470163392</v>
       </c>
       <c r="J29">
-        <v>0.4675536921644063</v>
+        <v>0.002685146302598787</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>19.3348755</v>
+        <v>27.870364</v>
       </c>
       <c r="N29">
-        <v>38.669751</v>
+        <v>55.740728</v>
       </c>
       <c r="O29">
-        <v>0.04941913452582716</v>
+        <v>0.08426540426907815</v>
       </c>
       <c r="P29">
-        <v>0.03694338192314825</v>
+        <v>0.06482354492233867</v>
       </c>
       <c r="Q29">
-        <v>733.3923420179054</v>
+        <v>3.274368294782667</v>
       </c>
       <c r="R29">
-        <v>4400.354052107433</v>
+        <v>19.646209768696</v>
       </c>
       <c r="S29">
-        <v>0.01838674324837571</v>
+        <v>0.0001524916025772798</v>
       </c>
       <c r="T29">
-        <v>0.01727301461920775</v>
+        <v>0.0001740607019695641</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,22 +2273,22 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G30">
-        <v>37.931061</v>
+        <v>0.1174856666666667</v>
       </c>
       <c r="H30">
-        <v>113.793183</v>
+        <v>0.352457</v>
       </c>
       <c r="I30">
-        <v>0.3720571682364556</v>
+        <v>0.001809658470163392</v>
       </c>
       <c r="J30">
-        <v>0.4675536921644063</v>
+        <v>0.002685146302598787</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>83.25665266666667</v>
+        <v>19.17638633333334</v>
       </c>
       <c r="N30">
-        <v>249.769958</v>
+        <v>57.52915900000001</v>
       </c>
       <c r="O30">
-        <v>0.2128005281598046</v>
+        <v>0.05797936283854631</v>
       </c>
       <c r="P30">
-        <v>0.2386192492246122</v>
+        <v>0.06690339643179515</v>
       </c>
       <c r="Q30">
-        <v>3158.013170955146</v>
+        <v>2.252950532629223</v>
       </c>
       <c r="R30">
-        <v>28422.11853859631</v>
+        <v>20.276554793663</v>
       </c>
       <c r="S30">
-        <v>0.07917396190635904</v>
+        <v>0.0001049228450554519</v>
       </c>
       <c r="T30">
-        <v>0.1115673109964661</v>
+        <v>0.0001796454075601356</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,22 +2335,22 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G31">
-        <v>37.931061</v>
+        <v>0.1174856666666667</v>
       </c>
       <c r="H31">
-        <v>113.793183</v>
+        <v>0.352457</v>
       </c>
       <c r="I31">
-        <v>0.3720571682364556</v>
+        <v>0.001809658470163392</v>
       </c>
       <c r="J31">
-        <v>0.4675536921644063</v>
+        <v>0.002685146302598787</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>71.272429</v>
+        <v>95.53593066666667</v>
       </c>
       <c r="N31">
-        <v>213.817287</v>
+        <v>286.607792</v>
       </c>
       <c r="O31">
-        <v>0.1821693528222338</v>
+        <v>0.2888506881305636</v>
       </c>
       <c r="P31">
-        <v>0.2042716462128862</v>
+        <v>0.3333098390786051</v>
       </c>
       <c r="Q31">
-        <v>2703.438852017169</v>
+        <v>11.22410250499378</v>
       </c>
       <c r="R31">
-        <v>24330.94966815452</v>
+        <v>101.016922544944</v>
       </c>
       <c r="S31">
-        <v>0.06777741355050811</v>
+        <v>0.0005227210943879989</v>
       </c>
       <c r="T31">
-        <v>0.0955079623913363</v>
+        <v>0.0008949856820217132</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,22 +2397,22 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G32">
-        <v>0.3087476666666666</v>
+        <v>0.078345</v>
       </c>
       <c r="H32">
-        <v>0.9262429999999999</v>
+        <v>0.235035</v>
       </c>
       <c r="I32">
-        <v>0.003028435786692419</v>
+        <v>0.001206765870829216</v>
       </c>
       <c r="J32">
-        <v>0.003805749369814501</v>
+        <v>0.001790582571012367</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>107.663086</v>
+        <v>104.480755</v>
       </c>
       <c r="N32">
-        <v>215.326172</v>
+        <v>208.96151</v>
       </c>
       <c r="O32">
-        <v>0.2751823527645522</v>
+        <v>0.3158951586858897</v>
       </c>
       <c r="P32">
-        <v>0.2057131686791961</v>
+        <v>0.2430112830697999</v>
       </c>
       <c r="Q32">
-        <v>33.24072658863266</v>
+        <v>8.185544750475</v>
       </c>
       <c r="R32">
-        <v>199.444359531796</v>
+        <v>49.11326850284999</v>
       </c>
       <c r="S32">
-        <v>0.0008333720849783874</v>
+        <v>0.0003812114962623109</v>
       </c>
       <c r="T32">
-        <v>0.0007828927620633946</v>
+        <v>0.0004351317680241363</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,22 +2459,22 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G33">
-        <v>0.3087476666666666</v>
+        <v>0.078345</v>
       </c>
       <c r="H33">
-        <v>0.9262429999999999</v>
+        <v>0.235035</v>
       </c>
       <c r="I33">
-        <v>0.003028435786692419</v>
+        <v>0.001206765870829216</v>
       </c>
       <c r="J33">
-        <v>0.003805749369814501</v>
+        <v>0.001790582571012367</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>82.23518200000001</v>
       </c>
       <c r="O33">
-        <v>0.07006323059444027</v>
+        <v>0.08287872686044118</v>
       </c>
       <c r="P33">
-        <v>0.07856388152449202</v>
+        <v>0.09563520617408686</v>
       </c>
       <c r="Q33">
-        <v>8.463306853469556</v>
+        <v>2.14757177793</v>
       </c>
       <c r="R33">
-        <v>76.16976168122601</v>
+        <v>19.32814600137</v>
       </c>
       <c r="S33">
-        <v>0.000212181994863486</v>
+        <v>0.000100015218992957</v>
       </c>
       <c r="T33">
-        <v>0.0002989944426020166</v>
+        <v>0.0001712427333504942</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,22 +2521,22 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G34">
-        <v>0.3087476666666666</v>
+        <v>0.078345</v>
       </c>
       <c r="H34">
-        <v>0.9262429999999999</v>
+        <v>0.235035</v>
       </c>
       <c r="I34">
-        <v>0.003028435786692419</v>
+        <v>0.001206765870829216</v>
       </c>
       <c r="J34">
-        <v>0.003805749369814501</v>
+        <v>0.001790582571012367</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>82.303927</v>
+        <v>56.26987066666667</v>
       </c>
       <c r="N34">
-        <v>246.911781</v>
+        <v>168.809612</v>
       </c>
       <c r="O34">
-        <v>0.2103654011331419</v>
+        <v>0.170130659215481</v>
       </c>
       <c r="P34">
-        <v>0.2358886724356653</v>
+        <v>0.1963167303233743</v>
       </c>
       <c r="Q34">
-        <v>25.41114541875367</v>
+        <v>4.40846301738</v>
       </c>
       <c r="R34">
-        <v>228.700308768783</v>
+        <v>39.67616715642</v>
       </c>
       <c r="S34">
-        <v>0.0006370781090735129</v>
+        <v>0.0002053078731229184</v>
       </c>
       <c r="T34">
-        <v>0.0008977331664684124</v>
+        <v>0.0003515213157151692</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,22 +2583,22 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F35">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G35">
-        <v>0.3087476666666666</v>
+        <v>0.078345</v>
       </c>
       <c r="H35">
-        <v>0.9262429999999999</v>
+        <v>0.235035</v>
       </c>
       <c r="I35">
-        <v>0.003028435786692419</v>
+        <v>0.001206765870829216</v>
       </c>
       <c r="J35">
-        <v>0.003805749369814501</v>
+        <v>0.001790582571012367</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>19.3348755</v>
+        <v>27.870364</v>
       </c>
       <c r="N35">
-        <v>38.669751</v>
+        <v>55.740728</v>
       </c>
       <c r="O35">
-        <v>0.04941913452582716</v>
+        <v>0.08426540426907815</v>
       </c>
       <c r="P35">
-        <v>0.03694338192314825</v>
+        <v>0.06482354492233867</v>
       </c>
       <c r="Q35">
-        <v>5.969597695915499</v>
+        <v>2.18350366758</v>
       </c>
       <c r="R35">
-        <v>35.817586175493</v>
+        <v>13.10102200548</v>
       </c>
       <c r="S35">
-        <v>0.0001496626755453818</v>
+        <v>0.00010168861396355</v>
       </c>
       <c r="T35">
-        <v>0.0001405972524728379</v>
+        <v>0.0001160719097291768</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,22 +2645,22 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G36">
-        <v>0.3087476666666666</v>
+        <v>0.078345</v>
       </c>
       <c r="H36">
-        <v>0.9262429999999999</v>
+        <v>0.235035</v>
       </c>
       <c r="I36">
-        <v>0.003028435786692419</v>
+        <v>0.001206765870829216</v>
       </c>
       <c r="J36">
-        <v>0.003805749369814501</v>
+        <v>0.001790582571012367</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>83.25665266666667</v>
+        <v>19.17638633333334</v>
       </c>
       <c r="N36">
-        <v>249.769958</v>
+        <v>57.52915900000001</v>
       </c>
       <c r="O36">
-        <v>0.2128005281598046</v>
+        <v>0.05797936283854631</v>
       </c>
       <c r="P36">
-        <v>0.2386192492246122</v>
+        <v>0.06690339643179515</v>
       </c>
       <c r="Q36">
-        <v>25.70529724531044</v>
+        <v>1.502373987285</v>
       </c>
       <c r="R36">
-        <v>231.347675207794</v>
+        <v>13.521365885565</v>
       </c>
       <c r="S36">
-        <v>0.0006444527349062001</v>
+        <v>6.99675162859814E-05</v>
       </c>
       <c r="T36">
-        <v>0.0009081250573621773</v>
+        <v>0.0001197960555923034</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,22 +2707,22 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G37">
-        <v>0.3087476666666666</v>
+        <v>0.078345</v>
       </c>
       <c r="H37">
-        <v>0.9262429999999999</v>
+        <v>0.235035</v>
       </c>
       <c r="I37">
-        <v>0.003028435786692419</v>
+        <v>0.001206765870829216</v>
       </c>
       <c r="J37">
-        <v>0.003805749369814501</v>
+        <v>0.001790582571012367</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>71.272429</v>
+        <v>95.53593066666667</v>
       </c>
       <c r="N37">
-        <v>213.817287</v>
+        <v>286.607792</v>
       </c>
       <c r="O37">
-        <v>0.1821693528222338</v>
+        <v>0.2888506881305636</v>
       </c>
       <c r="P37">
-        <v>0.2042716462128862</v>
+        <v>0.3333098390786051</v>
       </c>
       <c r="Q37">
-        <v>22.00519615141567</v>
+        <v>7.48476248808</v>
       </c>
       <c r="R37">
-        <v>198.046765362741</v>
+        <v>67.36286239272</v>
       </c>
       <c r="S37">
-        <v>0.0005516881873254506</v>
+        <v>0.0003485751522014978</v>
       </c>
       <c r="T37">
-        <v>0.0007774066888456622</v>
+        <v>0.000596818788601087</v>
       </c>
     </row>
   </sheetData>
